--- a/manual_db_adds.xlsx
+++ b/manual_db_adds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zenodallavalle/Documents/Projects/report-microbiologia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DA11DE-D004-8A44-A01A-D12EB196E3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390C36D9-CC5A-FA4E-84AF-02343B04AA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17620" xr2:uid="{9602F0A6-5C0A-6049-9955-D746DEB883ED}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{9602F0A6-5C0A-6049-9955-D746DEB883ED}"/>
   </bookViews>
   <sheets>
     <sheet name="adds" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id_antibiotico</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>risultato_quantitativo</t>
-  </si>
-  <si>
-    <t>cognome_paziente</t>
-  </si>
-  <si>
-    <t>nome_paziente</t>
   </si>
   <si>
     <t>id_richiesta</t>
@@ -431,24 +425,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -456,18 +448,12 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
